--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3450683.59772073</v>
+        <v>3448139.375784702</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7908475.596868269</v>
+        <v>7908475.59686827</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.8333590606435</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>175.6809662669684</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>110.474903119898</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>176.0166538343223</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.220402619926</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>91.22469481809453</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>95.92094869536547</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>60.63040113948531</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.96764876074938</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>172.6321500621333</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346049</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787265</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>109.3899176519692</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>131.2385532439877</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719213</v>
+        <v>94.29180769719214</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155174</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>211.1292411394088</v>
+        <v>209.4231280264273</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>116.1509575899509</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>53.42877878309337</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>29.24923305751711</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>31.39650288673342</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>123.7971820797027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871772</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871772</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="D2" t="n">
-        <v>170.3628934706925</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>192.4575684550919</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4328,16 +4328,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4349,31 +4349,31 @@
         <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201466</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201466</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036619</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036619</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036619</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036619</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871772</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871772</v>
+        <v>199.4030692042953</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4410,49 +4410,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843274</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843274</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843274</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843274</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="W3" t="n">
-        <v>611.3284810521072</v>
+        <v>382.2164318224391</v>
       </c>
       <c r="X3" t="n">
-        <v>421.9086960356225</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
-        <v>232.4889110191378</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4489,46 +4489,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428095</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>216.063482639416</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340726</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287293</v>
+        <v>633.0454302264752</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652794</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652794</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487947</v>
+        <v>371.26277863231</v>
       </c>
       <c r="U4" t="n">
-        <v>393.841617006275</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V4" t="n">
-        <v>393.841617006275</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W4" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
         <v>15.00204697330559</v>
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>470.7565634137597</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="C5" t="n">
-        <v>101.794046473348</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="D5" t="n">
-        <v>53.08656907948338</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="E5" t="n">
         <v>53.08656907948338</v>
@@ -4598,19 +4598,19 @@
         <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003256</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="V5" t="n">
-        <v>1213.664550659686</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="W5" t="n">
-        <v>860.8958953895715</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="X5" t="n">
-        <v>860.8958953895715</v>
+        <v>917.620818123763</v>
       </c>
       <c r="Y5" t="n">
-        <v>470.7565634137597</v>
+        <v>825.4746617418493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613.2439521774281</v>
+        <v>192.966666068014</v>
       </c>
       <c r="C6" t="n">
-        <v>438.7909228963011</v>
+        <v>192.966666068014</v>
       </c>
       <c r="D6" t="n">
-        <v>289.8565132350499</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>130.6190582295944</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
         <v>33.72921106255854</v>
@@ -4647,19 +4647,19 @@
         <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4678301599682</v>
+        <v>442.288414802421</v>
       </c>
       <c r="L6" t="n">
-        <v>415.7050622867858</v>
+        <v>660.7750882322384</v>
       </c>
       <c r="M6" t="n">
-        <v>679.6445937822731</v>
+        <v>924.7146197277257</v>
       </c>
       <c r="N6" t="n">
-        <v>964.9784642156058</v>
+        <v>1210.048490161058</v>
       </c>
       <c r="O6" t="n">
-        <v>1203.783415967064</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
         <v>1621.182402866226</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1451.308444896184</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1197.071088167983</v>
+        <v>630.1851312868596</v>
       </c>
       <c r="X6" t="n">
-        <v>989.2195879624501</v>
+        <v>568.942301853036</v>
       </c>
       <c r="Y6" t="n">
-        <v>781.4592891974962</v>
+        <v>361.1820030880821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.6488915551978</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="V7" t="n">
-        <v>1038.447176894973</v>
+        <v>718.3148693967192</v>
       </c>
       <c r="W7" t="n">
-        <v>749.0300068580125</v>
+        <v>428.8976993597586</v>
       </c>
       <c r="X7" t="n">
-        <v>521.0404559599951</v>
+        <v>254.5217902060886</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.0404559599951</v>
+        <v>33.72921106255854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.2508332601153</v>
+        <v>895.3796678471274</v>
       </c>
       <c r="C8" t="n">
-        <v>63.2508332601153</v>
+        <v>526.4171509067156</v>
       </c>
       <c r="D8" t="n">
-        <v>63.2508332601153</v>
+        <v>526.4171509067156</v>
       </c>
       <c r="E8" t="n">
-        <v>63.2508332601153</v>
+        <v>140.6288983084714</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091182</v>
+        <v>133.6833975592679</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761839</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761839</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872711</v>
+        <v>156.8927045872707</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159006</v>
+        <v>376.2952505158997</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985292</v>
+        <v>685.3852714985276</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556946</v>
+        <v>1060.976912556943</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415491</v>
+        <v>1447.259827415488</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975113</v>
+        <v>1798.680568975109</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631091</v>
+        <v>2064.109040631087</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208131</v>
+        <v>2215.262022208125</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.782172489934</v>
+        <v>2007.782172489928</v>
       </c>
       <c r="U8" t="n">
-        <v>1897.287306174813</v>
+        <v>1754.178276574268</v>
       </c>
       <c r="V8" t="n">
-        <v>1566.224418831243</v>
+        <v>1754.178276574268</v>
       </c>
       <c r="W8" t="n">
-        <v>1213.455763561129</v>
+        <v>1401.409621304154</v>
       </c>
       <c r="X8" t="n">
-        <v>839.9900053000488</v>
+        <v>1027.943863043075</v>
       </c>
       <c r="Y8" t="n">
-        <v>449.8506733242371</v>
+        <v>895.3796678471274</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.298865693644</v>
+        <v>599.8413699559302</v>
       </c>
       <c r="C9" t="n">
-        <v>756.845836412517</v>
+        <v>425.3883406748031</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676157</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424106</v>
+        <v>92.56405995424078</v>
       </c>
       <c r="K9" t="n">
-        <v>462.6427349937659</v>
+        <v>253.1149126643081</v>
       </c>
       <c r="L9" t="n">
-        <v>724.8457108234428</v>
+        <v>802.0148009435842</v>
       </c>
       <c r="M9" t="n">
-        <v>1050.181084473549</v>
+        <v>1127.35017459369</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.535762314303</v>
+        <v>1591.467798350895</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729456</v>
+        <v>1887.924476766048</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996784</v>
+        <v>2106.524031033376</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380919</v>
+        <v>2202.73284755902</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380919</v>
+        <v>2079.21869647298</v>
       </c>
       <c r="T9" t="n">
-        <v>2217.777326380919</v>
+        <v>1884.596484064436</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.515466644143</v>
+        <v>1673.057970906429</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.3633584124</v>
+        <v>1437.905862674686</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.126001684199</v>
+        <v>1183.668505946485</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.274501478666</v>
+        <v>975.817005740952</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.514202713712</v>
+        <v>768.0567069759982</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330.6159290413343</v>
+        <v>435.374696008845</v>
       </c>
       <c r="C10" t="n">
-        <v>161.6797461134274</v>
+        <v>266.4385130809382</v>
       </c>
       <c r="D10" t="n">
-        <v>161.6797461134274</v>
+        <v>266.4385130809382</v>
       </c>
       <c r="E10" t="n">
-        <v>44.35554652761839</v>
+        <v>266.4385130809382</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761839</v>
+        <v>212.4700496636721</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761839</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692048</v>
+        <v>60.95254262692023</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274034</v>
+        <v>218.063342327403</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918442</v>
+        <v>474.6375091918436</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921719</v>
+        <v>755.548116892171</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629319</v>
+        <v>1035.213914629318</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546132</v>
+        <v>1277.51424854613</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659241</v>
+        <v>1461.323360659239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155969</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155969</v>
+        <v>1396.807701620021</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155969</v>
+        <v>1396.807701620021</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155969</v>
+        <v>1173.2821474617</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155969</v>
+        <v>884.1568260503925</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.463693950082</v>
+        <v>884.1568260503925</v>
       </c>
       <c r="W10" t="n">
-        <v>961.0465239131215</v>
+        <v>884.1568260503925</v>
       </c>
       <c r="X10" t="n">
-        <v>733.0569730151042</v>
+        <v>656.1672751523752</v>
       </c>
       <c r="Y10" t="n">
-        <v>512.264393871574</v>
+        <v>435.374696008845</v>
       </c>
     </row>
     <row r="11">
@@ -5033,52 +5033,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2165.348906208039</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1876.273679552237</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.58919134635</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.172021309389</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>527.7722521572603</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>527.7722521572603</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471073</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,13 +8146,13 @@
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>145.822099510105</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>25.90541300402725</v>
+        <v>8.985656744431139</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>247.5454807529823</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.6442649792498</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>289.5928408581815</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>116.9322686024766</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.325226556883</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260455</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>186.0089474405548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>21.62386594322854</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>37.12601365260463</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132554</v>
@@ -26329,31 +26329,31 @@
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.805677833</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296917</v>
+        <v>138712.7919296904</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745742</v>
+        <v>589678.792174575</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153571</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484327</v>
+        <v>33617.8733648429</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167272</v>
+        <v>154073.8510167275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632065</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296185</v>
+        <v>170385.5244296189</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685503</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685501</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685507</v>
@@ -26457,7 +26457,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969318</v>
+        <v>86168.04029969306</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167048.2424712031</v>
+        <v>-167048.2424712034</v>
       </c>
       <c r="C6" t="n">
-        <v>215474.5337518794</v>
+        <v>215474.5337518792</v>
       </c>
       <c r="D6" t="n">
-        <v>364197.2804654588</v>
+        <v>364197.2804654597</v>
       </c>
       <c r="E6" t="n">
-        <v>41592.53063791906</v>
+        <v>41557.79271248254</v>
       </c>
       <c r="F6" t="n">
-        <v>631271.3228124934</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="G6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="H6" t="n">
-        <v>631271.3228124934</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="I6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870577</v>
       </c>
       <c r="J6" t="n">
-        <v>582206.3780839486</v>
+        <v>582171.6401585132</v>
       </c>
       <c r="K6" t="n">
-        <v>571024.1632209577</v>
+        <v>570989.425295522</v>
       </c>
       <c r="L6" t="n">
-        <v>597653.4494476499</v>
+        <v>597618.7115222146</v>
       </c>
       <c r="M6" t="n">
-        <v>477197.471795766</v>
+        <v>477162.7338703302</v>
       </c>
       <c r="N6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870578</v>
       </c>
       <c r="O6" t="n">
-        <v>631271.3228124934</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="P6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870575</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790461</v>
+        <v>863.7717861790452</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952299</v>
+        <v>554.4443315952284</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.966615459035109e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847055</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814361</v>
+        <v>113.7908296814352</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626281</v>
+        <v>504.2037141626286</v>
       </c>
       <c r="F3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132481</v>
+        <v>132.8291933132466</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044187</v>
+        <v>618.26395650442</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132481</v>
+        <v>132.8291933132466</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044187</v>
+        <v>618.26395650442</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132481</v>
+        <v>132.8291933132466</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044187</v>
+        <v>618.26395650442</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>248.0970110116182</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>237.4168669630896</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988694</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>141.2200800410216</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715764</v>
+        <v>29.75633136915522</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098452</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378025</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>121.0925443173558</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>86.96510614773356</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>306.462639000757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>295.0132438379591</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.14826369801841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
@@ -27713,7 +27713,7 @@
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>145.1425840639922</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.8643314211879</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>53.07750532690386</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6042843978725</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734613</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>141.6779393045334</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>254.9993854120659</v>
       </c>
     </row>
     <row r="9">
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155182</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>14.68990908503122</v>
+        <v>16.39602219801276</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>30.28300505661826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>91.99226923983787</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.3785035421427</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.163973491667621e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.740183841666113e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29746,13 +29746,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31361,7 +31361,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31394,7 +31394,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31467,13 +31467,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674555</v>
+        <v>3.472449391674551</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248704</v>
+        <v>35.562222332487</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725334</v>
+        <v>133.8716051725333</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566385</v>
+        <v>294.7198015566382</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062225</v>
+        <v>441.708584306222</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766827</v>
+        <v>547.9785573766821</v>
       </c>
       <c r="M8" t="n">
-        <v>609.731729245875</v>
+        <v>609.7317292458745</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799704</v>
+        <v>619.5978260799698</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415066</v>
+        <v>585.0686574415059</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845409</v>
+        <v>499.3425630845404</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451958</v>
+        <v>374.9854692451954</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997769</v>
+        <v>218.1262490997767</v>
       </c>
       <c r="S8" t="n">
-        <v>79.128440512784</v>
+        <v>79.12844051278391</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205537</v>
+        <v>15.20064721205535</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339643</v>
+        <v>0.277795951333964</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328514</v>
+        <v>1.857924219328512</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930434</v>
+        <v>17.94363653930432</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986333</v>
+        <v>63.96800491986326</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743664</v>
+        <v>175.5330947743662</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693768</v>
+        <v>300.0140174693765</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169215</v>
+        <v>403.4058705169211</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675801</v>
+        <v>470.7556234675796</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436911</v>
+        <v>483.2151240436906</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627803</v>
+        <v>442.0474347627799</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873897</v>
+        <v>354.7820379873894</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391978</v>
+        <v>237.1623968391975</v>
       </c>
       <c r="R9" t="n">
-        <v>115.354277407081</v>
+        <v>115.3542774070808</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498356</v>
+        <v>34.51012749498353</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363614</v>
+        <v>7.488738410363606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347707</v>
+        <v>0.1222318565347706</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765493</v>
+        <v>1.557621253765491</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529685</v>
+        <v>13.84866896529683</v>
       </c>
       <c r="I10" t="n">
-        <v>46.8419191586932</v>
+        <v>46.84191915869315</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412203</v>
+        <v>110.1238226412202</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011181</v>
+        <v>180.9672693011179</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552807</v>
+        <v>231.5757998552804</v>
       </c>
       <c r="M10" t="n">
-        <v>244.164211624349</v>
+        <v>244.1642116243487</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057687</v>
+        <v>238.3585324057685</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231445</v>
+        <v>220.1626841231442</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463282</v>
+        <v>188.387210546328</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.429539713036</v>
+        <v>130.4295397130358</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658296</v>
+        <v>70.03631564658289</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516771</v>
+        <v>27.14509039516768</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543468</v>
+        <v>6.655290811543461</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0849611592962997</v>
+        <v>0.08496115929629962</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>669.4669885000068</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068218</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>169.4872848053133</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>387.1148251643754</v>
       </c>
       <c r="L6" t="n">
-        <v>237.6133657846643</v>
+        <v>220.6936095250682</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>421.6151382819818</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299522</v>
+        <v>113.6738970299519</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612419</v>
+        <v>221.6187332612415</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066955</v>
+        <v>312.2121424066949</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186023</v>
+        <v>379.3854960186018</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833795</v>
+        <v>390.1847624833788</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198199</v>
+        <v>354.9704460198192</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292714</v>
+        <v>268.1095673292709</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707463</v>
+        <v>152.6797793707459</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644818</v>
+        <v>2.540711285644591</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769967</v>
+        <v>48.6954681076995</v>
       </c>
       <c r="K9" t="n">
-        <v>373.8168434742676</v>
+        <v>162.1725784950175</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370474</v>
+        <v>554.4443315952284</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455617</v>
+        <v>328.6215895455613</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603578</v>
+        <v>468.8056805628339</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183359</v>
+        <v>299.4511903183354</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730595</v>
+        <v>220.8076305730592</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890253</v>
+        <v>97.18062275317598</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.19644325443771</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454755</v>
+        <v>16.76464252454744</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752353</v>
+        <v>158.6977774752351</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155968</v>
+        <v>259.1658251155966</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861896</v>
+        <v>283.7480885861893</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849973</v>
+        <v>282.4907047849971</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371841</v>
+        <v>244.7478120371839</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112217</v>
+        <v>185.6657698112215</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134157</v>
+        <v>44.26749646134142</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555623</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
